--- a/recipes/white/sourdough_croissant.xlsx
+++ b/recipes/white/sourdough_croissant.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="160">
   <si>
     <t>autolyze</t>
   </si>
@@ -487,6 +487,21 @@
   </si>
   <si>
     <t>68 F</t>
+  </si>
+  <si>
+    <t>milk was warmer than previous times, added sugar to milk, autolyzed than added salt, and butter, kneaded for 15 minutes, rested on table for 1 hour and refrigerated for 5 hours. Butter packet was 15x15 cm, froze for 30 minutes. The dough was out for an hour, combined frozen butter packet with the dough, fold and turn twice, refrigerated for an hour, repeated twice. refigerated for 48 hours.</t>
+  </si>
+  <si>
+    <t>on middle rack, 450 heated oven, baked for 5 minutes, decreased to 350 when croissants are in, baked for 35 minutes, turned half way through</t>
+  </si>
+  <si>
+    <t>added the mil warm</t>
+  </si>
+  <si>
+    <t>set oven to 350 and kept the formed non baked croissants on top for an hour to raise better</t>
+  </si>
+  <si>
+    <t>8 medium croissants, appear good, raised, but could be open crumbed better…</t>
   </si>
 </sst>
 </file>
@@ -555,8 +570,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -659,7 +676,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -703,6 +720,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -746,6 +764,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,13 +1094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y9"/>
+  <dimension ref="B1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -1439,8 +1458,93 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:25">
-      <c r="C9" s="2"/>
+    <row r="9" spans="2:25" ht="64" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43535</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="64" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43538</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
